--- a/biology/Botanique/Disa_purpurascens/Disa_purpurascens.xlsx
+++ b/biology/Botanique/Disa_purpurascens/Disa_purpurascens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Disa purpurascens est une espèce de la famille des Orchidaceae. Elle est également dénommée early blue disa ou bloumoederkappie. Son aire de répartition naturelle est le sud-ouest de la province du Cap. C’est un géophyte tubéreux qui pousse principalement dans le biome subtropical.
-[1]
 </t>
         </is>
       </c>
@@ -512,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Disa purpurascens pousse à partir d’un tubercule d’une longueur d’environ 30 mm et d’un diamètre d’environ 10 mm. Les plantes mesurent 200-250 mm., Environ 10 feuilles étroites et rigides, environ deux fois moins hautes que la plante, se développent à partir d’une rosette basale. La base de la plante est souvent entourée d’une gaine de vieilles fibres foliaires[2]. Cette espèce fleurit en octobre et novembre, produisant une inflorescence de 1 à 7 fleurs délicatement parfumées. Chaque fleur a un capuchon bleu et des ailes latérales, avec une lèvre violet foncé en dessous. Des pétales jaune-vert se trouvent à l’arrière de la capuche[3]. Bien que les fleurs ressemblent à celles de Disa graminifolia, elles diffèrent par un bord de lèvre incurvé et un éperon conique. Les floraisons peuvent avoir lieu également à différentes périodes de l’année[4]. Bien qu’il y ait généralement très peu de variations entre les plantes, quelques fleurs blanches ont été observées. Il a été suggéré qu’il s’agissait d’un caractère génétique récessif[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disa purpurascens pousse à partir d’un tubercule d’une longueur d’environ 30 mm et d’un diamètre d’environ 10 mm. Les plantes mesurent 200-250 mm., Environ 10 feuilles étroites et rigides, environ deux fois moins hautes que la plante, se développent à partir d’une rosette basale. La base de la plante est souvent entourée d’une gaine de vieilles fibres foliaires. Cette espèce fleurit en octobre et novembre, produisant une inflorescence de 1 à 7 fleurs délicatement parfumées. Chaque fleur a un capuchon bleu et des ailes latérales, avec une lèvre violet foncé en dessous. Des pétales jaune-vert se trouvent à l’arrière de la capuche. Bien que les fleurs ressemblent à celles de Disa graminifolia, elles diffèrent par un bord de lèvre incurvé et un éperon conique. Les floraisons peuvent avoir lieu également à différentes périodes de l’année. Bien qu’il y ait généralement très peu de variations entre les plantes, quelques fleurs blanches ont été observées. Il a été suggéré qu’il s’agissait d’un caractère génétique récessif.
 </t>
         </is>
       </c>
@@ -543,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a une distribution assez étroite, poussant dans les régions côtières entre Cap Hangklip et Cap des Aiguilles. On ne pense pas qu’il se produise au delà de 100 m au-dessus du niveau de la mer[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a une distribution assez étroite, poussant dans les régions côtières entre Cap Hangklip et Cap des Aiguilles. On ne pense pas qu’il se produise au delà de 100 m au-dessus du niveau de la mer.
 </t>
         </is>
       </c>
@@ -574,10 +589,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Disa purpurascens Bolus[5].
-Disa purpurascens a pour synonymes[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Disa purpurascens Bolus.
+Disa purpurascens a pour synonymes :
 Herschelia purpurascens (Bolus) Kraenzl.
 Herschelianthe purpurascens (Bolus) Rauschert</t>
         </is>
